--- a/PopravljeniExcel/prebivalstvostarost_popravljeno.xlsx
+++ b/PopravljeniExcel/prebivalstvostarost_popravljeno.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/192eea6e0f660701/Dokumenti/Faks/2. letnik/4. semester/Praktikum II/OPSI-Migracije/OPSI-Migracije/PopravljeniExcel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{71F0865B-9893-42FB-B685-8BB10E93ABF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3129FA66-22E9-4F6A-B689-DB5A3D0F6318}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="8_{71F0865B-9893-42FB-B685-8BB10E93ABF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B2B427EE-4266-42FF-B3F1-CC7C011A6EFC}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="195">
   <si>
     <t>Občina</t>
   </si>
@@ -596,9 +596,6 @@
   </si>
   <si>
     <t>2023</t>
-  </si>
-  <si>
-    <t>2024</t>
   </si>
   <si>
     <t>Population aged 15+ years  - TOTAL</t>
@@ -614,7 +611,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -628,6 +625,12 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -668,6 +671,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -955,10 +962,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J190"/>
+  <dimension ref="A1:G190"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -966,53 +973,52 @@
     <col min="1" max="1" width="28.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="31.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B1" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>190</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>195</v>
-      </c>
       <c r="E2" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1034,17 +1040,8 @@
       <c r="G3">
         <v>940600</v>
       </c>
-      <c r="H3">
-        <v>435889</v>
-      </c>
-      <c r="I3">
-        <v>1791246</v>
-      </c>
-      <c r="J3">
-        <v>398391</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1066,17 +1063,8 @@
       <c r="G4">
         <v>8229</v>
       </c>
-      <c r="H4">
-        <v>3659</v>
-      </c>
-      <c r="I4">
-        <v>16354</v>
-      </c>
-      <c r="J4">
-        <v>4194</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1098,17 +1086,8 @@
       <c r="G5">
         <v>3715</v>
       </c>
-      <c r="H5">
-        <v>1183</v>
-      </c>
-      <c r="I5">
-        <v>6922</v>
-      </c>
-      <c r="J5">
-        <v>1950</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1130,17 +1109,8 @@
       <c r="G6">
         <v>3698</v>
       </c>
-      <c r="H6">
-        <v>2105</v>
-      </c>
-      <c r="I6">
-        <v>7055</v>
-      </c>
-      <c r="J6">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1162,17 +1132,8 @@
       <c r="G7">
         <v>2629</v>
       </c>
-      <c r="H7">
-        <v>965</v>
-      </c>
-      <c r="I7">
-        <v>4768</v>
-      </c>
-      <c r="J7">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1194,17 +1155,8 @@
       <c r="G8">
         <v>2029</v>
       </c>
-      <c r="H8">
-        <v>885</v>
-      </c>
-      <c r="I8">
-        <v>3800</v>
-      </c>
-      <c r="J8">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1226,17 +1178,8 @@
       <c r="G9">
         <v>1401</v>
       </c>
-      <c r="H9">
-        <v>563</v>
-      </c>
-      <c r="I9">
-        <v>2877</v>
-      </c>
-      <c r="J9">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1258,17 +1201,8 @@
       <c r="G10">
         <v>2570</v>
       </c>
-      <c r="H10">
-        <v>1019</v>
-      </c>
-      <c r="I10">
-        <v>4817</v>
-      </c>
-      <c r="J10">
-        <v>1164</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1290,17 +1224,8 @@
       <c r="G11">
         <v>5572</v>
       </c>
-      <c r="H11">
-        <v>3007</v>
-      </c>
-      <c r="I11">
-        <v>10499</v>
-      </c>
-      <c r="J11">
-        <v>1826</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1322,17 +1247,8 @@
       <c r="G12">
         <v>11425</v>
       </c>
-      <c r="H12">
-        <v>4367</v>
-      </c>
-      <c r="I12">
-        <v>21001</v>
-      </c>
-      <c r="J12">
-        <v>4843</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1354,17 +1270,8 @@
       <c r="G13">
         <v>1758</v>
       </c>
-      <c r="H13">
-        <v>519</v>
-      </c>
-      <c r="I13">
-        <v>3436</v>
-      </c>
-      <c r="J13">
-        <v>1118</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1386,17 +1293,8 @@
       <c r="G14">
         <v>22601</v>
       </c>
-      <c r="H14">
-        <v>11051</v>
-      </c>
-      <c r="I14">
-        <v>42022</v>
-      </c>
-      <c r="J14">
-        <v>8713</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1418,17 +1316,8 @@
       <c r="G15">
         <v>3305</v>
       </c>
-      <c r="H15">
-        <v>1573</v>
-      </c>
-      <c r="I15">
-        <v>6515</v>
-      </c>
-      <c r="J15">
-        <v>1542</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1450,17 +1339,8 @@
       <c r="G16">
         <v>5216</v>
       </c>
-      <c r="H16">
-        <v>2415</v>
-      </c>
-      <c r="I16">
-        <v>9822</v>
-      </c>
-      <c r="J16">
-        <v>2102</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1482,17 +1362,8 @@
       <c r="G17">
         <v>1829</v>
       </c>
-      <c r="H17">
-        <v>744</v>
-      </c>
-      <c r="I17">
-        <v>3852</v>
-      </c>
-      <c r="J17">
-        <v>1236</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1514,17 +1385,8 @@
       <c r="G18">
         <v>1234</v>
       </c>
-      <c r="H18">
-        <v>335</v>
-      </c>
-      <c r="I18">
-        <v>2246</v>
-      </c>
-      <c r="J18">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1546,17 +1408,8 @@
       <c r="G19">
         <v>1962</v>
       </c>
-      <c r="H19">
-        <v>775</v>
-      </c>
-      <c r="I19">
-        <v>3672</v>
-      </c>
-      <c r="J19">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1578,17 +1431,8 @@
       <c r="G20">
         <v>1822</v>
       </c>
-      <c r="H20">
-        <v>595</v>
-      </c>
-      <c r="I20">
-        <v>3286</v>
-      </c>
-      <c r="J20">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -1610,17 +1454,8 @@
       <c r="G21">
         <v>3343</v>
       </c>
-      <c r="H21">
-        <v>1671</v>
-      </c>
-      <c r="I21">
-        <v>6454</v>
-      </c>
-      <c r="J21">
-        <v>1332</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -1642,17 +1477,8 @@
       <c r="G22">
         <v>2638</v>
       </c>
-      <c r="H22">
-        <v>1529</v>
-      </c>
-      <c r="I22">
-        <v>5175</v>
-      </c>
-      <c r="J22">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -1674,17 +1500,8 @@
       <c r="G23">
         <v>15780</v>
       </c>
-      <c r="H23">
-        <v>8601</v>
-      </c>
-      <c r="I23">
-        <v>30394</v>
-      </c>
-      <c r="J23">
-        <v>5942</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -1706,17 +1523,8 @@
       <c r="G24">
         <v>1350</v>
       </c>
-      <c r="H24">
-        <v>373</v>
-      </c>
-      <c r="I24">
-        <v>2506</v>
-      </c>
-      <c r="J24">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -1738,17 +1546,8 @@
       <c r="G25">
         <v>4302</v>
       </c>
-      <c r="H25">
-        <v>1413</v>
-      </c>
-      <c r="I25">
-        <v>7531</v>
-      </c>
-      <c r="J25">
-        <v>1773</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -1770,17 +1569,8 @@
       <c r="G26">
         <v>3519</v>
       </c>
-      <c r="H26">
-        <v>1092</v>
-      </c>
-      <c r="I26">
-        <v>5882</v>
-      </c>
-      <c r="J26">
-        <v>1258</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -1802,17 +1592,8 @@
       <c r="G27">
         <v>3212</v>
       </c>
-      <c r="H27">
-        <v>1262</v>
-      </c>
-      <c r="I27">
-        <v>6061</v>
-      </c>
-      <c r="J27">
-        <v>1466</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -1834,17 +1615,8 @@
       <c r="G28">
         <v>2032</v>
       </c>
-      <c r="H28">
-        <v>611</v>
-      </c>
-      <c r="I28">
-        <v>3540</v>
-      </c>
-      <c r="J28">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -1866,17 +1638,8 @@
       <c r="G29">
         <v>3977</v>
       </c>
-      <c r="H29">
-        <v>1342</v>
-      </c>
-      <c r="I29">
-        <v>7368</v>
-      </c>
-      <c r="J29">
-        <v>1974</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -1898,17 +1661,8 @@
       <c r="G30">
         <v>1139</v>
       </c>
-      <c r="H30">
-        <v>359</v>
-      </c>
-      <c r="I30">
-        <v>2125</v>
-      </c>
-      <c r="J30">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -1930,17 +1684,8 @@
       <c r="G31">
         <v>834</v>
       </c>
-      <c r="H31">
-        <v>223</v>
-      </c>
-      <c r="I31">
-        <v>1803</v>
-      </c>
-      <c r="J31">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -1962,17 +1707,8 @@
       <c r="G32">
         <v>9350</v>
       </c>
-      <c r="H32">
-        <v>4674</v>
-      </c>
-      <c r="I32">
-        <v>17543</v>
-      </c>
-      <c r="J32">
-        <v>3470</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -1994,17 +1730,8 @@
       <c r="G33">
         <v>4313</v>
       </c>
-      <c r="H33">
-        <v>1335</v>
-      </c>
-      <c r="I33">
-        <v>7914</v>
-      </c>
-      <c r="J33">
-        <v>2244</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -2026,17 +1753,8 @@
       <c r="G34">
         <v>2112</v>
       </c>
-      <c r="H34">
-        <v>807</v>
-      </c>
-      <c r="I34">
-        <v>4159</v>
-      </c>
-      <c r="J34">
-        <v>1070</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -2058,17 +1776,8 @@
       <c r="G35">
         <v>4911</v>
       </c>
-      <c r="H35">
-        <v>2264</v>
-      </c>
-      <c r="I35">
-        <v>10024</v>
-      </c>
-      <c r="J35">
-        <v>2825</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -2090,17 +1799,8 @@
       <c r="G36">
         <v>3295</v>
       </c>
-      <c r="H36">
-        <v>1537</v>
-      </c>
-      <c r="I36">
-        <v>6237</v>
-      </c>
-      <c r="J36">
-        <v>1342</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -2122,17 +1822,8 @@
       <c r="G37">
         <v>6252</v>
       </c>
-      <c r="H37">
-        <v>2258</v>
-      </c>
-      <c r="I37">
-        <v>11551</v>
-      </c>
-      <c r="J37">
-        <v>2955</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -2154,17 +1845,8 @@
       <c r="G38">
         <v>7628</v>
       </c>
-      <c r="H38">
-        <v>3374</v>
-      </c>
-      <c r="I38">
-        <v>14339</v>
-      </c>
-      <c r="J38">
-        <v>2935</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -2186,17 +1868,8 @@
       <c r="G39">
         <v>7151</v>
       </c>
-      <c r="H39">
-        <v>3529</v>
-      </c>
-      <c r="I39">
-        <v>14374</v>
-      </c>
-      <c r="J39">
-        <v>3477</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -2218,17 +1891,8 @@
       <c r="G40">
         <v>10538</v>
       </c>
-      <c r="H40">
-        <v>2678</v>
-      </c>
-      <c r="I40">
-        <v>18493</v>
-      </c>
-      <c r="J40">
-        <v>5089</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -2250,17 +1914,8 @@
       <c r="G41">
         <v>1077</v>
       </c>
-      <c r="H41">
-        <v>250</v>
-      </c>
-      <c r="I41">
-        <v>2036</v>
-      </c>
-      <c r="J41">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -2282,17 +1937,8 @@
       <c r="G42">
         <v>13016</v>
       </c>
-      <c r="H42">
-        <v>5907</v>
-      </c>
-      <c r="I42">
-        <v>24957</v>
-      </c>
-      <c r="J42">
-        <v>5846</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -2314,17 +1960,8 @@
       <c r="G43">
         <v>2823</v>
       </c>
-      <c r="H43">
-        <v>847</v>
-      </c>
-      <c r="I43">
-        <v>4574</v>
-      </c>
-      <c r="J43">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -2346,17 +1983,8 @@
       <c r="G44">
         <v>3225</v>
       </c>
-      <c r="H44">
-        <v>1078</v>
-      </c>
-      <c r="I44">
-        <v>5548</v>
-      </c>
-      <c r="J44">
-        <v>1213</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -2378,17 +2006,8 @@
       <c r="G45">
         <v>1768</v>
       </c>
-      <c r="H45">
-        <v>759</v>
-      </c>
-      <c r="I45">
-        <v>3458</v>
-      </c>
-      <c r="J45">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -2410,17 +2029,8 @@
       <c r="G46">
         <v>252</v>
       </c>
-      <c r="H46">
-        <v>70</v>
-      </c>
-      <c r="I46">
-        <v>477</v>
-      </c>
-      <c r="J46">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -2442,17 +2052,8 @@
       <c r="G47">
         <v>7362</v>
       </c>
-      <c r="H47">
-        <v>2214</v>
-      </c>
-      <c r="I47">
-        <v>13322</v>
-      </c>
-      <c r="J47">
-        <v>3722</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -2474,17 +2075,8 @@
       <c r="G48">
         <v>1596</v>
       </c>
-      <c r="H48">
-        <v>737</v>
-      </c>
-      <c r="I48">
-        <v>3125</v>
-      </c>
-      <c r="J48">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -2506,17 +2098,8 @@
       <c r="G49">
         <v>23869</v>
       </c>
-      <c r="H49">
-        <v>10832</v>
-      </c>
-      <c r="I49">
-        <v>45478</v>
-      </c>
-      <c r="J49">
-        <v>10109</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -2538,17 +2121,8 @@
       <c r="G50">
         <v>1279</v>
       </c>
-      <c r="H50">
-        <v>414</v>
-      </c>
-      <c r="I50">
-        <v>2605</v>
-      </c>
-      <c r="J50">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -2570,17 +2144,8 @@
       <c r="G51">
         <v>24529</v>
       </c>
-      <c r="H51">
-        <v>12699</v>
-      </c>
-      <c r="I51">
-        <v>47954</v>
-      </c>
-      <c r="J51">
-        <v>10600</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -2602,17 +2167,8 @@
       <c r="G52">
         <v>2692</v>
       </c>
-      <c r="H52">
-        <v>1185</v>
-      </c>
-      <c r="I52">
-        <v>6314</v>
-      </c>
-      <c r="J52">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -2634,17 +2190,8 @@
       <c r="G53">
         <v>11699</v>
       </c>
-      <c r="H53">
-        <v>4388</v>
-      </c>
-      <c r="I53">
-        <v>21695</v>
-      </c>
-      <c r="J53">
-        <v>5665</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>52</v>
       </c>
@@ -2666,17 +2213,8 @@
       <c r="G54">
         <v>2244</v>
       </c>
-      <c r="H54">
-        <v>859</v>
-      </c>
-      <c r="I54">
-        <v>4165</v>
-      </c>
-      <c r="J54">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>53</v>
       </c>
@@ -2698,17 +2236,8 @@
       <c r="G55">
         <v>610</v>
       </c>
-      <c r="H55">
-        <v>164</v>
-      </c>
-      <c r="I55">
-        <v>1382</v>
-      </c>
-      <c r="J55">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -2730,17 +2259,8 @@
       <c r="G56">
         <v>5947</v>
       </c>
-      <c r="H56">
-        <v>2084</v>
-      </c>
-      <c r="I56">
-        <v>11262</v>
-      </c>
-      <c r="J56">
-        <v>3128</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>55</v>
       </c>
@@ -2762,17 +2282,8 @@
       <c r="G57">
         <v>3948</v>
       </c>
-      <c r="H57">
-        <v>1477</v>
-      </c>
-      <c r="I57">
-        <v>7259</v>
-      </c>
-      <c r="J57">
-        <v>1774</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>56</v>
       </c>
@@ -2794,17 +2305,8 @@
       <c r="G58">
         <v>4938</v>
       </c>
-      <c r="H58">
-        <v>1717</v>
-      </c>
-      <c r="I58">
-        <v>9283</v>
-      </c>
-      <c r="J58">
-        <v>2504</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>57</v>
       </c>
@@ -2826,17 +2328,8 @@
       <c r="G59">
         <v>7068</v>
       </c>
-      <c r="H59">
-        <v>2647</v>
-      </c>
-      <c r="I59">
-        <v>13166</v>
-      </c>
-      <c r="J59">
-        <v>3274</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>58</v>
       </c>
@@ -2858,17 +2351,8 @@
       <c r="G60">
         <v>120180</v>
       </c>
-      <c r="H60">
-        <v>90353</v>
-      </c>
-      <c r="I60">
-        <v>252727</v>
-      </c>
-      <c r="J60">
-        <v>42079</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>59</v>
       </c>
@@ -2890,17 +2374,8 @@
       <c r="G61">
         <v>1160</v>
       </c>
-      <c r="H61">
-        <v>400</v>
-      </c>
-      <c r="I61">
-        <v>2162</v>
-      </c>
-      <c r="J61">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>60</v>
       </c>
@@ -2922,17 +2397,8 @@
       <c r="G62">
         <v>5232</v>
       </c>
-      <c r="H62">
-        <v>1733</v>
-      </c>
-      <c r="I62">
-        <v>9704</v>
-      </c>
-      <c r="J62">
-        <v>2674</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>61</v>
       </c>
@@ -2954,17 +2420,8 @@
       <c r="G63">
         <v>5994</v>
       </c>
-      <c r="H63">
-        <v>2987</v>
-      </c>
-      <c r="I63">
-        <v>11941</v>
-      </c>
-      <c r="J63">
-        <v>2729</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>62</v>
       </c>
@@ -2986,17 +2443,8 @@
       <c r="G64">
         <v>1654</v>
       </c>
-      <c r="H64">
-        <v>596</v>
-      </c>
-      <c r="I64">
-        <v>3191</v>
-      </c>
-      <c r="J64">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>63</v>
       </c>
@@ -3018,17 +2466,8 @@
       <c r="G65">
         <v>833</v>
       </c>
-      <c r="H65">
-        <v>222</v>
-      </c>
-      <c r="I65">
-        <v>1568</v>
-      </c>
-      <c r="J65">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>64</v>
       </c>
@@ -3050,17 +2489,8 @@
       <c r="G66">
         <v>608</v>
       </c>
-      <c r="H66">
-        <v>186</v>
-      </c>
-      <c r="I66">
-        <v>1243</v>
-      </c>
-      <c r="J66">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>65</v>
       </c>
@@ -3082,17 +2512,8 @@
       <c r="G67">
         <v>2666</v>
       </c>
-      <c r="H67">
-        <v>961</v>
-      </c>
-      <c r="I67">
-        <v>4783</v>
-      </c>
-      <c r="J67">
-        <v>1147</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>66</v>
       </c>
@@ -3114,17 +2535,8 @@
       <c r="G68">
         <v>1904</v>
       </c>
-      <c r="H68">
-        <v>623</v>
-      </c>
-      <c r="I68">
-        <v>3481</v>
-      </c>
-      <c r="J68">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>67</v>
       </c>
@@ -3146,17 +2558,8 @@
       <c r="G69">
         <v>54258</v>
       </c>
-      <c r="H69">
-        <v>27185</v>
-      </c>
-      <c r="I69">
-        <v>99260</v>
-      </c>
-      <c r="J69">
-        <v>16922</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>68</v>
       </c>
@@ -3178,17 +2581,8 @@
       <c r="G70">
         <v>7299</v>
       </c>
-      <c r="H70">
-        <v>4156</v>
-      </c>
-      <c r="I70">
-        <v>14016</v>
-      </c>
-      <c r="J70">
-        <v>2558</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>69</v>
       </c>
@@ -3210,17 +2604,8 @@
       <c r="G71">
         <v>3530</v>
       </c>
-      <c r="H71">
-        <v>1930</v>
-      </c>
-      <c r="I71">
-        <v>6965</v>
-      </c>
-      <c r="J71">
-        <v>1400</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>70</v>
       </c>
@@ -3242,17 +2627,8 @@
       <c r="G72">
         <v>4051</v>
       </c>
-      <c r="H72">
-        <v>1284</v>
-      </c>
-      <c r="I72">
-        <v>7249</v>
-      </c>
-      <c r="J72">
-        <v>1876</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>71</v>
       </c>
@@ -3274,17 +2650,8 @@
       <c r="G73">
         <v>1857</v>
       </c>
-      <c r="H73">
-        <v>549</v>
-      </c>
-      <c r="I73">
-        <v>3116</v>
-      </c>
-      <c r="J73">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>72</v>
       </c>
@@ -3306,17 +2673,8 @@
       <c r="G74">
         <v>2263</v>
       </c>
-      <c r="H74">
-        <v>971</v>
-      </c>
-      <c r="I74">
-        <v>4277</v>
-      </c>
-      <c r="J74">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>73</v>
       </c>
@@ -3338,17 +2696,8 @@
       <c r="G75">
         <v>2076</v>
       </c>
-      <c r="H75">
-        <v>831</v>
-      </c>
-      <c r="I75">
-        <v>3844</v>
-      </c>
-      <c r="J75">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>74</v>
       </c>
@@ -3370,17 +2719,8 @@
       <c r="G76">
         <v>2413</v>
       </c>
-      <c r="H76">
-        <v>880</v>
-      </c>
-      <c r="I76">
-        <v>4449</v>
-      </c>
-      <c r="J76">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>75</v>
       </c>
@@ -3402,17 +2742,8 @@
       <c r="G77">
         <v>2559</v>
       </c>
-      <c r="H77">
-        <v>914</v>
-      </c>
-      <c r="I77">
-        <v>5206</v>
-      </c>
-      <c r="J77">
-        <v>1578</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>76</v>
       </c>
@@ -3434,17 +2765,8 @@
       <c r="G78">
         <v>1776</v>
       </c>
-      <c r="H78">
-        <v>866</v>
-      </c>
-      <c r="I78">
-        <v>3579</v>
-      </c>
-      <c r="J78">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>77</v>
       </c>
@@ -3466,17 +2788,8 @@
       <c r="G79">
         <v>8393</v>
       </c>
-      <c r="H79">
-        <v>4160</v>
-      </c>
-      <c r="I79">
-        <v>16243</v>
-      </c>
-      <c r="J79">
-        <v>3681</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>78</v>
       </c>
@@ -3498,17 +2811,8 @@
       <c r="G80">
         <v>1629</v>
       </c>
-      <c r="H80">
-        <v>516</v>
-      </c>
-      <c r="I80">
-        <v>2923</v>
-      </c>
-      <c r="J80">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>79</v>
       </c>
@@ -3530,17 +2834,8 @@
       <c r="G81">
         <v>2433</v>
       </c>
-      <c r="H81">
-        <v>1195</v>
-      </c>
-      <c r="I81">
-        <v>4549</v>
-      </c>
-      <c r="J81">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>80</v>
       </c>
@@ -3562,17 +2857,8 @@
       <c r="G82">
         <v>1246</v>
       </c>
-      <c r="H82">
-        <v>436</v>
-      </c>
-      <c r="I82">
-        <v>2212</v>
-      </c>
-      <c r="J82">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>81</v>
       </c>
@@ -3594,17 +2880,8 @@
       <c r="G83">
         <v>13762</v>
       </c>
-      <c r="H83">
-        <v>7058</v>
-      </c>
-      <c r="I83">
-        <v>27308</v>
-      </c>
-      <c r="J83">
-        <v>6399</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>82</v>
       </c>
@@ -3626,17 +2903,8 @@
       <c r="G84">
         <v>15809</v>
       </c>
-      <c r="H84">
-        <v>8491</v>
-      </c>
-      <c r="I84">
-        <v>31062</v>
-      </c>
-      <c r="J84">
-        <v>6847</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>83</v>
       </c>
@@ -3658,17 +2926,8 @@
       <c r="G85">
         <v>681</v>
       </c>
-      <c r="H85">
-        <v>197</v>
-      </c>
-      <c r="I85">
-        <v>1365</v>
-      </c>
-      <c r="J85">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>84</v>
       </c>
@@ -3690,17 +2949,8 @@
       <c r="G86">
         <v>5824</v>
       </c>
-      <c r="H86">
-        <v>1672</v>
-      </c>
-      <c r="I86">
-        <v>10256</v>
-      </c>
-      <c r="J86">
-        <v>2694</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>85</v>
       </c>
@@ -3722,17 +2972,8 @@
       <c r="G87">
         <v>185</v>
       </c>
-      <c r="H87">
-        <v>35</v>
-      </c>
-      <c r="I87">
-        <v>303</v>
-      </c>
-      <c r="J87">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>86</v>
       </c>
@@ -3754,17 +2995,8 @@
       <c r="G88">
         <v>3719</v>
       </c>
-      <c r="H88">
-        <v>1071</v>
-      </c>
-      <c r="I88">
-        <v>6587</v>
-      </c>
-      <c r="J88">
-        <v>1668</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>87</v>
       </c>
@@ -3786,17 +3018,8 @@
       <c r="G89">
         <v>8388</v>
       </c>
-      <c r="H89">
-        <v>4234</v>
-      </c>
-      <c r="I89">
-        <v>16219</v>
-      </c>
-      <c r="J89">
-        <v>2972</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>88</v>
       </c>
@@ -3818,17 +3041,8 @@
       <c r="G90">
         <v>2749</v>
       </c>
-      <c r="H90">
-        <v>1025</v>
-      </c>
-      <c r="I90">
-        <v>5249</v>
-      </c>
-      <c r="J90">
-        <v>1450</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>89</v>
       </c>
@@ -3850,17 +3064,8 @@
       <c r="G91">
         <v>1524</v>
       </c>
-      <c r="H91">
-        <v>530</v>
-      </c>
-      <c r="I91">
-        <v>3046</v>
-      </c>
-      <c r="J91">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>90</v>
       </c>
@@ -3882,17 +3087,8 @@
       <c r="G92">
         <v>1138</v>
       </c>
-      <c r="H92">
-        <v>257</v>
-      </c>
-      <c r="I92">
-        <v>2057</v>
-      </c>
-      <c r="J92">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>91</v>
       </c>
@@ -3914,17 +3110,8 @@
       <c r="G93">
         <v>6994</v>
       </c>
-      <c r="H93">
-        <v>3401</v>
-      </c>
-      <c r="I93">
-        <v>13856</v>
-      </c>
-      <c r="J93">
-        <v>3275</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>92</v>
       </c>
@@ -3946,17 +3133,8 @@
       <c r="G94">
         <v>1507</v>
       </c>
-      <c r="H94">
-        <v>889</v>
-      </c>
-      <c r="I94">
-        <v>3153</v>
-      </c>
-      <c r="J94">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>93</v>
       </c>
@@ -3978,17 +3156,8 @@
       <c r="G95">
         <v>11647</v>
       </c>
-      <c r="H95">
-        <v>4973</v>
-      </c>
-      <c r="I95">
-        <v>20472</v>
-      </c>
-      <c r="J95">
-        <v>3697</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>94</v>
       </c>
@@ -4010,17 +3179,8 @@
       <c r="G96">
         <v>2508</v>
       </c>
-      <c r="H96">
-        <v>744</v>
-      </c>
-      <c r="I96">
-        <v>5122</v>
-      </c>
-      <c r="J96">
-        <v>1805</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>95</v>
       </c>
@@ -4042,17 +3202,8 @@
       <c r="G97">
         <v>3521</v>
       </c>
-      <c r="H97">
-        <v>1628</v>
-      </c>
-      <c r="I97">
-        <v>6415</v>
-      </c>
-      <c r="J97">
-        <v>1178</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>96</v>
       </c>
@@ -4074,17 +3225,8 @@
       <c r="G98">
         <v>1982</v>
       </c>
-      <c r="H98">
-        <v>708</v>
-      </c>
-      <c r="I98">
-        <v>3578</v>
-      </c>
-      <c r="J98">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>97</v>
       </c>
@@ -4106,17 +3248,8 @@
       <c r="G99">
         <v>2469</v>
       </c>
-      <c r="H99">
-        <v>936</v>
-      </c>
-      <c r="I99">
-        <v>4474</v>
-      </c>
-      <c r="J99">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>98</v>
       </c>
@@ -4138,17 +3271,8 @@
       <c r="G100">
         <v>3083</v>
       </c>
-      <c r="H100">
-        <v>874</v>
-      </c>
-      <c r="I100">
-        <v>5269</v>
-      </c>
-      <c r="J100">
-        <v>1271</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>99</v>
       </c>
@@ -4170,17 +3294,8 @@
       <c r="G101">
         <v>8567</v>
       </c>
-      <c r="H101">
-        <v>4463</v>
-      </c>
-      <c r="I101">
-        <v>16291</v>
-      </c>
-      <c r="J101">
-        <v>3102</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>100</v>
       </c>
@@ -4202,17 +3317,8 @@
       <c r="G102">
         <v>5524</v>
       </c>
-      <c r="H102">
-        <v>2159</v>
-      </c>
-      <c r="I102">
-        <v>9714</v>
-      </c>
-      <c r="J102">
-        <v>2053</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>101</v>
       </c>
@@ -4234,17 +3340,8 @@
       <c r="G103">
         <v>4341</v>
       </c>
-      <c r="H103">
-        <v>1750</v>
-      </c>
-      <c r="I103">
-        <v>7956</v>
-      </c>
-      <c r="J103">
-        <v>1765</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>102</v>
       </c>
@@ -4266,17 +3363,8 @@
       <c r="G104">
         <v>1237</v>
       </c>
-      <c r="H104">
-        <v>292</v>
-      </c>
-      <c r="I104">
-        <v>2699</v>
-      </c>
-      <c r="J104">
-        <v>1089</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>103</v>
       </c>
@@ -4298,17 +3386,8 @@
       <c r="G105">
         <v>5569</v>
       </c>
-      <c r="H105">
-        <v>1651</v>
-      </c>
-      <c r="I105">
-        <v>9712</v>
-      </c>
-      <c r="J105">
-        <v>2323</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>104</v>
       </c>
@@ -4330,17 +3409,8 @@
       <c r="G106">
         <v>1519</v>
       </c>
-      <c r="H106">
-        <v>389</v>
-      </c>
-      <c r="I106">
-        <v>2687</v>
-      </c>
-      <c r="J106">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>105</v>
       </c>
@@ -4362,17 +3432,8 @@
       <c r="G107">
         <v>3456</v>
       </c>
-      <c r="H107">
-        <v>1300</v>
-      </c>
-      <c r="I107">
-        <v>6151</v>
-      </c>
-      <c r="J107">
-        <v>1330</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>106</v>
       </c>
@@ -4394,17 +3455,8 @@
       <c r="G108">
         <v>1640</v>
       </c>
-      <c r="H108">
-        <v>540</v>
-      </c>
-      <c r="I108">
-        <v>3299</v>
-      </c>
-      <c r="J108">
-        <v>1048</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>107</v>
       </c>
@@ -4426,17 +3478,8 @@
       <c r="G109">
         <v>8569</v>
       </c>
-      <c r="H109">
-        <v>2658</v>
-      </c>
-      <c r="I109">
-        <v>15105</v>
-      </c>
-      <c r="J109">
-        <v>3810</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>108</v>
       </c>
@@ -4458,17 +3501,8 @@
       <c r="G110">
         <v>6280</v>
       </c>
-      <c r="H110">
-        <v>2690</v>
-      </c>
-      <c r="I110">
-        <v>11797</v>
-      </c>
-      <c r="J110">
-        <v>2657</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>109</v>
       </c>
@@ -4490,17 +3524,8 @@
       <c r="G111">
         <v>7499</v>
       </c>
-      <c r="H111">
-        <v>3359</v>
-      </c>
-      <c r="I111">
-        <v>14041</v>
-      </c>
-      <c r="J111">
-        <v>3144</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>110</v>
       </c>
@@ -4522,17 +3547,8 @@
       <c r="G112">
         <v>12191</v>
       </c>
-      <c r="H112">
-        <v>4897</v>
-      </c>
-      <c r="I112">
-        <v>21877</v>
-      </c>
-      <c r="J112">
-        <v>4591</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>111</v>
       </c>
@@ -4554,17 +3570,8 @@
       <c r="G113">
         <v>7148</v>
       </c>
-      <c r="H113">
-        <v>2583</v>
-      </c>
-      <c r="I113">
-        <v>12834</v>
-      </c>
-      <c r="J113">
-        <v>2922</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>112</v>
       </c>
@@ -4586,17 +3593,8 @@
       <c r="G114">
         <v>2068</v>
       </c>
-      <c r="H114">
-        <v>704</v>
-      </c>
-      <c r="I114">
-        <v>3540</v>
-      </c>
-      <c r="J114">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>113</v>
       </c>
@@ -4618,17 +3616,8 @@
       <c r="G115">
         <v>1219</v>
       </c>
-      <c r="H115">
-        <v>350</v>
-      </c>
-      <c r="I115">
-        <v>2381</v>
-      </c>
-      <c r="J115">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>114</v>
       </c>
@@ -4650,17 +3639,8 @@
       <c r="G116">
         <v>4754</v>
       </c>
-      <c r="H116">
-        <v>2064</v>
-      </c>
-      <c r="I116">
-        <v>9483</v>
-      </c>
-      <c r="J116">
-        <v>2586</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>115</v>
       </c>
@@ -4682,17 +3662,8 @@
       <c r="G117">
         <v>7720</v>
       </c>
-      <c r="H117">
-        <v>2797</v>
-      </c>
-      <c r="I117">
-        <v>13885</v>
-      </c>
-      <c r="J117">
-        <v>3387</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>116</v>
       </c>
@@ -4714,17 +3685,8 @@
       <c r="G118">
         <v>5700</v>
       </c>
-      <c r="H118">
-        <v>2456</v>
-      </c>
-      <c r="I118">
-        <v>10989</v>
-      </c>
-      <c r="J118">
-        <v>2627</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>117</v>
       </c>
@@ -4746,17 +3708,8 @@
       <c r="G119">
         <v>6864</v>
       </c>
-      <c r="H119">
-        <v>2606</v>
-      </c>
-      <c r="I119">
-        <v>12879</v>
-      </c>
-      <c r="J119">
-        <v>3311</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>118</v>
       </c>
@@ -4778,17 +3731,8 @@
       <c r="G120">
         <v>1424</v>
       </c>
-      <c r="H120">
-        <v>407</v>
-      </c>
-      <c r="I120">
-        <v>2753</v>
-      </c>
-      <c r="J120">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>119</v>
       </c>
@@ -4810,17 +3754,8 @@
       <c r="G121">
         <v>15778</v>
       </c>
-      <c r="H121">
-        <v>5968</v>
-      </c>
-      <c r="I121">
-        <v>28515</v>
-      </c>
-      <c r="J121">
-        <v>6737</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>120</v>
       </c>
@@ -4842,17 +3777,8 @@
       <c r="G122">
         <v>1961</v>
       </c>
-      <c r="H122">
-        <v>922</v>
-      </c>
-      <c r="I122">
-        <v>3742</v>
-      </c>
-      <c r="J122">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>121</v>
       </c>
@@ -4874,17 +3800,8 @@
       <c r="G123">
         <v>2875</v>
       </c>
-      <c r="H123">
-        <v>719</v>
-      </c>
-      <c r="I123">
-        <v>4886</v>
-      </c>
-      <c r="J123">
-        <v>1237</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>122</v>
       </c>
@@ -4906,17 +3823,8 @@
       <c r="G124">
         <v>2272</v>
       </c>
-      <c r="H124">
-        <v>1244</v>
-      </c>
-      <c r="I124">
-        <v>4755</v>
-      </c>
-      <c r="J124">
-        <v>1161</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>123</v>
       </c>
@@ -4938,17 +3846,8 @@
       <c r="G125">
         <v>918</v>
       </c>
-      <c r="H125">
-        <v>283</v>
-      </c>
-      <c r="I125">
-        <v>1907</v>
-      </c>
-      <c r="J125">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>124</v>
       </c>
@@ -4970,17 +3869,8 @@
       <c r="G126">
         <v>2095</v>
       </c>
-      <c r="H126">
-        <v>1224</v>
-      </c>
-      <c r="I126">
-        <v>4082</v>
-      </c>
-      <c r="J126">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>125</v>
       </c>
@@ -5002,17 +3892,8 @@
       <c r="G127">
         <v>4158</v>
       </c>
-      <c r="H127">
-        <v>1587</v>
-      </c>
-      <c r="I127">
-        <v>7604</v>
-      </c>
-      <c r="J127">
-        <v>1706</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>126</v>
       </c>
@@ -5034,17 +3915,8 @@
       <c r="G128">
         <v>7588</v>
       </c>
-      <c r="H128">
-        <v>3839</v>
-      </c>
-      <c r="I128">
-        <v>14620</v>
-      </c>
-      <c r="J128">
-        <v>3054</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>127</v>
       </c>
@@ -5066,17 +3938,8 @@
       <c r="G129">
         <v>1330</v>
       </c>
-      <c r="H129">
-        <v>417</v>
-      </c>
-      <c r="I129">
-        <v>2236</v>
-      </c>
-      <c r="J129">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>128</v>
       </c>
@@ -5098,17 +3961,8 @@
       <c r="G130">
         <v>7642</v>
       </c>
-      <c r="H130">
-        <v>2852</v>
-      </c>
-      <c r="I130">
-        <v>13886</v>
-      </c>
-      <c r="J130">
-        <v>3357</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>129</v>
       </c>
@@ -5130,17 +3984,8 @@
       <c r="G131">
         <v>824</v>
       </c>
-      <c r="H131">
-        <v>113</v>
-      </c>
-      <c r="I131">
-        <v>1348</v>
-      </c>
-      <c r="J131">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>130</v>
       </c>
@@ -5162,17 +4007,8 @@
       <c r="G132">
         <v>3061</v>
       </c>
-      <c r="H132">
-        <v>1032</v>
-      </c>
-      <c r="I132">
-        <v>5604</v>
-      </c>
-      <c r="J132">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>131</v>
       </c>
@@ -5194,17 +4030,8 @@
       <c r="G133">
         <v>1213</v>
       </c>
-      <c r="H133">
-        <v>337</v>
-      </c>
-      <c r="I133">
-        <v>2150</v>
-      </c>
-      <c r="J133">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>132</v>
       </c>
@@ -5226,17 +4053,8 @@
       <c r="G134">
         <v>569</v>
       </c>
-      <c r="H134">
-        <v>206</v>
-      </c>
-      <c r="I134">
-        <v>1167</v>
-      </c>
-      <c r="J134">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>133</v>
       </c>
@@ -5258,17 +4076,8 @@
       <c r="G135">
         <v>708</v>
       </c>
-      <c r="H135">
-        <v>295</v>
-      </c>
-      <c r="I135">
-        <v>1358</v>
-      </c>
-      <c r="J135">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>134</v>
       </c>
@@ -5290,17 +4099,8 @@
       <c r="G136">
         <v>2435</v>
       </c>
-      <c r="H136">
-        <v>1234</v>
-      </c>
-      <c r="I136">
-        <v>4722</v>
-      </c>
-      <c r="J136">
-        <v>1027</v>
-      </c>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>135</v>
       </c>
@@ -5322,17 +4122,8 @@
       <c r="G137">
         <v>744</v>
       </c>
-      <c r="H137">
-        <v>241</v>
-      </c>
-      <c r="I137">
-        <v>1536</v>
-      </c>
-      <c r="J137">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>136</v>
       </c>
@@ -5354,17 +4145,8 @@
       <c r="G138">
         <v>978</v>
       </c>
-      <c r="H138">
-        <v>240</v>
-      </c>
-      <c r="I138">
-        <v>1846</v>
-      </c>
-      <c r="J138">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>137</v>
       </c>
@@ -5386,17 +4168,8 @@
       <c r="G139">
         <v>383</v>
       </c>
-      <c r="H139">
-        <v>139</v>
-      </c>
-      <c r="I139">
-        <v>784</v>
-      </c>
-      <c r="J139">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>138</v>
       </c>
@@ -5418,17 +4191,8 @@
       <c r="G140">
         <v>1033</v>
       </c>
-      <c r="H140">
-        <v>353</v>
-      </c>
-      <c r="I140">
-        <v>1886</v>
-      </c>
-      <c r="J140">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>139</v>
       </c>
@@ -5450,17 +4214,8 @@
       <c r="G141">
         <v>581</v>
       </c>
-      <c r="H141">
-        <v>181</v>
-      </c>
-      <c r="I141">
-        <v>1106</v>
-      </c>
-      <c r="J141">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>140</v>
       </c>
@@ -5482,17 +4237,8 @@
       <c r="G142">
         <v>1580</v>
       </c>
-      <c r="H142">
-        <v>678</v>
-      </c>
-      <c r="I142">
-        <v>3024</v>
-      </c>
-      <c r="J142">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>141</v>
       </c>
@@ -5514,17 +4260,8 @@
       <c r="G143">
         <v>854</v>
       </c>
-      <c r="H143">
-        <v>189</v>
-      </c>
-      <c r="I143">
-        <v>1834</v>
-      </c>
-      <c r="J143">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>142</v>
       </c>
@@ -5546,17 +4283,8 @@
       <c r="G144">
         <v>1974</v>
       </c>
-      <c r="H144">
-        <v>678</v>
-      </c>
-      <c r="I144">
-        <v>3355</v>
-      </c>
-      <c r="J144">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>143</v>
       </c>
@@ -5578,17 +4306,8 @@
       <c r="G145">
         <v>5852</v>
       </c>
-      <c r="H145">
-        <v>2380</v>
-      </c>
-      <c r="I145">
-        <v>10009</v>
-      </c>
-      <c r="J145">
-        <v>1780</v>
-      </c>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>144</v>
       </c>
@@ -5610,17 +4329,8 @@
       <c r="G146">
         <v>106</v>
       </c>
-      <c r="H146">
-        <v>21</v>
-      </c>
-      <c r="I146">
-        <v>328</v>
-      </c>
-      <c r="J146">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>145</v>
       </c>
@@ -5642,17 +4352,8 @@
       <c r="G147">
         <v>1391</v>
       </c>
-      <c r="H147">
-        <v>552</v>
-      </c>
-      <c r="I147">
-        <v>2441</v>
-      </c>
-      <c r="J147">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>146</v>
       </c>
@@ -5674,17 +4375,8 @@
       <c r="G148">
         <v>295</v>
       </c>
-      <c r="H148">
-        <v>131</v>
-      </c>
-      <c r="I148">
-        <v>568</v>
-      </c>
-      <c r="J148">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>147</v>
       </c>
@@ -5706,17 +4398,8 @@
       <c r="G149">
         <v>2669</v>
       </c>
-      <c r="H149">
-        <v>1453</v>
-      </c>
-      <c r="I149">
-        <v>5122</v>
-      </c>
-      <c r="J149">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>148</v>
       </c>
@@ -5738,17 +4421,8 @@
       <c r="G150">
         <v>308</v>
       </c>
-      <c r="H150">
-        <v>123</v>
-      </c>
-      <c r="I150">
-        <v>624</v>
-      </c>
-      <c r="J150">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>149</v>
       </c>
@@ -5770,17 +4444,8 @@
       <c r="G151">
         <v>1606</v>
       </c>
-      <c r="H151">
-        <v>522</v>
-      </c>
-      <c r="I151">
-        <v>3113</v>
-      </c>
-      <c r="J151">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>150</v>
       </c>
@@ -5802,17 +4467,8 @@
       <c r="G152">
         <v>1429</v>
       </c>
-      <c r="H152">
-        <v>443</v>
-      </c>
-      <c r="I152">
-        <v>2570</v>
-      </c>
-      <c r="J152">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>151</v>
       </c>
@@ -5834,17 +4490,8 @@
       <c r="G153">
         <v>1990</v>
       </c>
-      <c r="H153">
-        <v>605</v>
-      </c>
-      <c r="I153">
-        <v>3413</v>
-      </c>
-      <c r="J153">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>152</v>
       </c>
@@ -5866,17 +4513,8 @@
       <c r="G154">
         <v>3614</v>
       </c>
-      <c r="H154">
-        <v>1282</v>
-      </c>
-      <c r="I154">
-        <v>5982</v>
-      </c>
-      <c r="J154">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>153</v>
       </c>
@@ -5898,17 +4536,8 @@
       <c r="G155">
         <v>1290</v>
       </c>
-      <c r="H155">
-        <v>534</v>
-      </c>
-      <c r="I155">
-        <v>2470</v>
-      </c>
-      <c r="J155">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>154</v>
       </c>
@@ -5930,17 +4559,8 @@
       <c r="G156">
         <v>1936</v>
       </c>
-      <c r="H156">
-        <v>651</v>
-      </c>
-      <c r="I156">
-        <v>3453</v>
-      </c>
-      <c r="J156">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>155</v>
       </c>
@@ -5962,17 +4582,8 @@
       <c r="G157">
         <v>860</v>
       </c>
-      <c r="H157">
-        <v>205</v>
-      </c>
-      <c r="I157">
-        <v>1639</v>
-      </c>
-      <c r="J157">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>156</v>
       </c>
@@ -5994,17 +4605,8 @@
       <c r="G158">
         <v>2668</v>
       </c>
-      <c r="H158">
-        <v>1233</v>
-      </c>
-      <c r="I158">
-        <v>5309</v>
-      </c>
-      <c r="J158">
-        <v>1331</v>
-      </c>
-    </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>157</v>
       </c>
@@ -6026,17 +4628,8 @@
       <c r="G159">
         <v>2218</v>
       </c>
-      <c r="H159">
-        <v>1027</v>
-      </c>
-      <c r="I159">
-        <v>4374</v>
-      </c>
-      <c r="J159">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>158</v>
       </c>
@@ -6058,17 +4651,8 @@
       <c r="G160">
         <v>3387</v>
       </c>
-      <c r="H160">
-        <v>1072</v>
-      </c>
-      <c r="I160">
-        <v>5816</v>
-      </c>
-      <c r="J160">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>159</v>
       </c>
@@ -6090,17 +4674,8 @@
       <c r="G161">
         <v>570</v>
       </c>
-      <c r="H161">
-        <v>183</v>
-      </c>
-      <c r="I161">
-        <v>1075</v>
-      </c>
-      <c r="J161">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>160</v>
       </c>
@@ -6122,17 +4697,8 @@
       <c r="G162">
         <v>557</v>
       </c>
-      <c r="H162">
-        <v>141</v>
-      </c>
-      <c r="I162">
-        <v>974</v>
-      </c>
-      <c r="J162">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>161</v>
       </c>
@@ -6154,17 +4720,8 @@
       <c r="G163">
         <v>2213</v>
       </c>
-      <c r="H163">
-        <v>813</v>
-      </c>
-      <c r="I163">
-        <v>3957</v>
-      </c>
-      <c r="J163">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>162</v>
       </c>
@@ -6186,17 +4743,8 @@
       <c r="G164">
         <v>877</v>
       </c>
-      <c r="H164">
-        <v>412</v>
-      </c>
-      <c r="I164">
-        <v>1824</v>
-      </c>
-      <c r="J164">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>163</v>
       </c>
@@ -6218,17 +4766,8 @@
       <c r="G165">
         <v>234</v>
       </c>
-      <c r="H165">
-        <v>86</v>
-      </c>
-      <c r="I165">
-        <v>447</v>
-      </c>
-      <c r="J165">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>164</v>
       </c>
@@ -6250,17 +4789,8 @@
       <c r="G166">
         <v>1001</v>
       </c>
-      <c r="H166">
-        <v>246</v>
-      </c>
-      <c r="I166">
-        <v>1973</v>
-      </c>
-      <c r="J166">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>165</v>
       </c>
@@ -6282,17 +4812,8 @@
       <c r="G167">
         <v>541</v>
       </c>
-      <c r="H167">
-        <v>139</v>
-      </c>
-      <c r="I167">
-        <v>1015</v>
-      </c>
-      <c r="J167">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>166</v>
       </c>
@@ -6314,17 +4835,8 @@
       <c r="G168">
         <v>682</v>
       </c>
-      <c r="H168">
-        <v>346</v>
-      </c>
-      <c r="I168">
-        <v>1367</v>
-      </c>
-      <c r="J168">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>167</v>
       </c>
@@ -6346,17 +4858,8 @@
       <c r="G169">
         <v>633</v>
       </c>
-      <c r="H169">
-        <v>161</v>
-      </c>
-      <c r="I169">
-        <v>1119</v>
-      </c>
-      <c r="J169">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>168</v>
       </c>
@@ -6378,17 +4881,8 @@
       <c r="G170">
         <v>1524</v>
       </c>
-      <c r="H170">
-        <v>1285</v>
-      </c>
-      <c r="I170">
-        <v>3278</v>
-      </c>
-      <c r="J170">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>169</v>
       </c>
@@ -6410,17 +4904,8 @@
       <c r="G171">
         <v>611</v>
       </c>
-      <c r="H171">
-        <v>181</v>
-      </c>
-      <c r="I171">
-        <v>1218</v>
-      </c>
-      <c r="J171">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>170</v>
       </c>
@@ -6442,17 +4927,8 @@
       <c r="G172">
         <v>628</v>
       </c>
-      <c r="H172">
-        <v>229</v>
-      </c>
-      <c r="I172">
-        <v>1161</v>
-      </c>
-      <c r="J172">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>171</v>
       </c>
@@ -6474,17 +4950,8 @@
       <c r="G173">
         <v>1118</v>
       </c>
-      <c r="H173">
-        <v>464</v>
-      </c>
-      <c r="I173">
-        <v>2220</v>
-      </c>
-      <c r="J173">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>172</v>
       </c>
@@ -6506,17 +4973,8 @@
       <c r="G174">
         <v>1661</v>
       </c>
-      <c r="H174">
-        <v>391</v>
-      </c>
-      <c r="I174">
-        <v>3050</v>
-      </c>
-      <c r="J174">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>173</v>
       </c>
@@ -6538,17 +4996,8 @@
       <c r="G175">
         <v>1229</v>
       </c>
-      <c r="H175">
-        <v>230</v>
-      </c>
-      <c r="I175">
-        <v>2081</v>
-      </c>
-      <c r="J175">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>174</v>
       </c>
@@ -6570,17 +5019,8 @@
       <c r="G176">
         <v>1077</v>
       </c>
-      <c r="H176">
-        <v>420</v>
-      </c>
-      <c r="I176">
-        <v>2066</v>
-      </c>
-      <c r="J176">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>175</v>
       </c>
@@ -6602,17 +5042,8 @@
       <c r="G177">
         <v>928</v>
       </c>
-      <c r="H177">
-        <v>272</v>
-      </c>
-      <c r="I177">
-        <v>1768</v>
-      </c>
-      <c r="J177">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>176</v>
       </c>
@@ -6634,17 +5065,8 @@
       <c r="G178">
         <v>1320</v>
       </c>
-      <c r="H178">
-        <v>493</v>
-      </c>
-      <c r="I178">
-        <v>2628</v>
-      </c>
-      <c r="J178">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>177</v>
       </c>
@@ -6666,17 +5088,8 @@
       <c r="G179">
         <v>2169</v>
       </c>
-      <c r="H179">
-        <v>688</v>
-      </c>
-      <c r="I179">
-        <v>3866</v>
-      </c>
-      <c r="J179">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>178</v>
       </c>
@@ -6698,17 +5111,8 @@
       <c r="G180">
         <v>1950</v>
       </c>
-      <c r="H180">
-        <v>844</v>
-      </c>
-      <c r="I180">
-        <v>3741</v>
-      </c>
-      <c r="J180">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>179</v>
       </c>
@@ -6730,17 +5134,8 @@
       <c r="G181">
         <v>947</v>
       </c>
-      <c r="H181">
-        <v>266</v>
-      </c>
-      <c r="I181">
-        <v>1667</v>
-      </c>
-      <c r="J181">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>180</v>
       </c>
@@ -6762,17 +5157,8 @@
       <c r="G182">
         <v>1713</v>
       </c>
-      <c r="H182">
-        <v>757</v>
-      </c>
-      <c r="I182">
-        <v>3266</v>
-      </c>
-      <c r="J182">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>181</v>
       </c>
@@ -6794,17 +5180,8 @@
       <c r="G183">
         <v>1066</v>
       </c>
-      <c r="H183">
-        <v>302</v>
-      </c>
-      <c r="I183">
-        <v>1925</v>
-      </c>
-      <c r="J183">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>182</v>
       </c>
@@ -6826,17 +5203,8 @@
       <c r="G184">
         <v>890</v>
       </c>
-      <c r="H184">
-        <v>240</v>
-      </c>
-      <c r="I184">
-        <v>1739</v>
-      </c>
-      <c r="J184">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>183</v>
       </c>
@@ -6858,17 +5226,8 @@
       <c r="G185">
         <v>1363</v>
       </c>
-      <c r="H185">
-        <v>522</v>
-      </c>
-      <c r="I185">
-        <v>2378</v>
-      </c>
-      <c r="J185">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>184</v>
       </c>
@@ -6890,17 +5249,8 @@
       <c r="G186">
         <v>1603</v>
       </c>
-      <c r="H186">
-        <v>1061</v>
-      </c>
-      <c r="I186">
-        <v>3107</v>
-      </c>
-      <c r="J186">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>185</v>
       </c>
@@ -6922,17 +5272,8 @@
       <c r="G187">
         <v>1112</v>
       </c>
-      <c r="H187">
-        <v>392</v>
-      </c>
-      <c r="I187">
-        <v>2003</v>
-      </c>
-      <c r="J187">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>186</v>
       </c>
@@ -6954,17 +5295,8 @@
       <c r="G188">
         <v>884</v>
       </c>
-      <c r="H188">
-        <v>264</v>
-      </c>
-      <c r="I188">
-        <v>1809</v>
-      </c>
-      <c r="J188">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>187</v>
       </c>
@@ -6986,17 +5318,8 @@
       <c r="G189">
         <v>1219</v>
       </c>
-      <c r="H189">
-        <v>515</v>
-      </c>
-      <c r="I189">
-        <v>2235</v>
-      </c>
-      <c r="J189">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>189</v>
       </c>
@@ -7018,17 +5341,9 @@
       <c r="G190">
         <v>1405</v>
       </c>
-      <c r="H190">
-        <v>853</v>
-      </c>
-      <c r="I190">
-        <v>2861</v>
-      </c>
-      <c r="J190">
-        <v>563</v>
-      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>